--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_25_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_25_.xlsx
@@ -138,7 +138,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -177,7 +177,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -191,7 +191,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -447,7 +447,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -593,7 +593,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -607,7 +607,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -763,7 +763,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1038,7 +1038,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1211,7 +1211,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1489,7 +1489,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1657,7 +1657,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -5227,7 +5227,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -5397,7 +5397,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>COSCO AGENT</t>
         </is>
       </c>
     </row>

--- a/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_25_.xlsx
+++ b/reports/_COSCO AGENT_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-11-28_25_.xlsx
@@ -19,9 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -110,13 +111,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -132,13 +134,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -148,30 +150,30 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -181,229 +183,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>In Trailer</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -426,15 +436,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -451,103 +461,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -572,15 +575,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -597,103 +600,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Container In Report</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -718,13 +714,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -733,31 +729,31 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -767,234 +763,237 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Unstuffing Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1017,15 +1016,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="48.2561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1042,103 +1041,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container Unstuffing Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,13 +1155,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK8"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="44.6561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1177,35 +1169,35 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.713483146067418"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="33" max="33" bestFit="false" customWidth="false"/>
-    <col min="34" max="34" bestFit="false" customWidth="false"/>
-    <col min="35" max="35" bestFit="false" customWidth="false"/>
-    <col min="36" max="36" bestFit="false" customWidth="false"/>
-    <col min="37" max="37" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1215,237 +1207,255 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Out Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Out Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="AG6" s="5" t="inlineStr">
+        <is>
+          <t>Total Lot</t>
+        </is>
+      </c>
+      <c r="AH6" s="5" t="inlineStr">
+        <is>
+          <t>Total Weight</t>
+        </is>
+      </c>
+      <c r="AI6" s="5" t="inlineStr">
+        <is>
+          <t>Out Transport</t>
+        </is>
+      </c>
+      <c r="AJ6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AK6" s="5" t="inlineStr">
+        <is>
+          <t>Out Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1468,15 +1478,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.456179775280894" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1493,103 +1503,96 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Total Import Container FCL Out Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1614,13 +1617,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1628,30 +1631,30 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="27.28988764044944"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.713483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="14.08988764044944"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="18.48988764044944"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="30" max="30" bestFit="false" customWidth="false"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="3.089887640449438"/>
-    <col min="32" max="32" bestFit="false" customWidth="false"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1661,189 +1664,305 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Laden Container Stock Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:31</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>In Date</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Trailer Number</t>
+        </is>
+      </c>
+      <c r="AE6" s="5" t="inlineStr">
+        <is>
+          <t>In Transport</t>
+        </is>
+      </c>
+      <c r="AF6" s="5" t="inlineStr">
+        <is>
+          <t>In Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Import Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
+      <c r="A7" s="0" t="n">
+        <v>9209</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>CBHU9064559</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>COA</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>OEL STRAITS</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>2472/2018</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>DEMOTRANS</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>SOUND</t>
+        </is>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>RAW COTTON</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>479122</v>
+      </c>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>2018-14359</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="d">
+        <v>2018-09-01T00:00:00</v>
+      </c>
+      <c r="X7" s="0" t="d">
+        <v>2018-09-02T00:00:00</v>
       </c>
       <c r="Y7" s="4" t="inlineStr">
         <is>
-          <t>BL #</t>
+          <t>CPA</t>
         </is>
       </c>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
+          <t>SAPL</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t>COSU6166712590</t>
+        </is>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>9209</v>
+        <v>9210</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>CBHU9064559</t>
+          <t>CCLU7727821</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1902,12 +2021,12 @@
         </is>
       </c>
       <c r="T8" s="0" t="n">
-        <v>479122</v>
+        <v>479126</v>
       </c>
       <c r="U8" s="0"/>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>2018-14359</t>
+          <t>2018-14347</t>
         </is>
       </c>
       <c r="W8" s="0" t="d">
@@ -1916,12 +2035,12 @@
       <c r="X8" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y8" s="0" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
+      <c r="Z8" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -1947,11 +2066,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9210</v>
+        <v>9211</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>CCLU7727821</t>
+          <t>CSNU6983344</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -2010,12 +2129,12 @@
         </is>
       </c>
       <c r="T9" s="0" t="n">
-        <v>479126</v>
+        <v>479119</v>
       </c>
       <c r="U9" s="0"/>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>2018-14347</t>
+          <t>2018-14364</t>
         </is>
       </c>
       <c r="W9" s="0" t="d">
@@ -2024,12 +2143,12 @@
       <c r="X9" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y9" s="0" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z9" s="0" t="inlineStr">
+      <c r="Z9" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2055,11 +2174,11 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>9211</v>
+        <v>9212</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>CSNU6983344</t>
+          <t>CSNU6101765</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
@@ -2118,12 +2237,12 @@
         </is>
       </c>
       <c r="T10" s="0" t="n">
-        <v>479119</v>
+        <v>479116</v>
       </c>
       <c r="U10" s="0"/>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>2018-14364</t>
+          <t>2018-14357</t>
         </is>
       </c>
       <c r="W10" s="0" t="d">
@@ -2132,12 +2251,12 @@
       <c r="X10" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y10" s="0" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
+      <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2163,11 +2282,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>9212</v>
+        <v>9213</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>CSNU6101765</t>
+          <t>CSNU6055931</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2226,12 +2345,12 @@
         </is>
       </c>
       <c r="T11" s="0" t="n">
-        <v>479116</v>
+        <v>479124</v>
       </c>
       <c r="U11" s="0"/>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>2018-14357</t>
+          <t>2018-14356</t>
         </is>
       </c>
       <c r="W11" s="0" t="d">
@@ -2240,12 +2359,12 @@
       <c r="X11" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y11" s="0" t="inlineStr">
+      <c r="Y11" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
+      <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2271,11 +2390,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>9213</v>
+        <v>9214</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>CSNU6055931</t>
+          <t>RFCU5034230</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2334,12 +2453,12 @@
         </is>
       </c>
       <c r="T12" s="0" t="n">
-        <v>479124</v>
+        <v>479125</v>
       </c>
       <c r="U12" s="0"/>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>2018-14356</t>
+          <t>2018-14370</t>
         </is>
       </c>
       <c r="W12" s="0" t="d">
@@ -2348,12 +2467,12 @@
       <c r="X12" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y12" s="0" t="inlineStr">
+      <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z12" s="0" t="inlineStr">
+      <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2379,11 +2498,11 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>9214</v>
+        <v>9215</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>RFCU5034230</t>
+          <t>DFSU7409627</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
@@ -2442,12 +2561,12 @@
         </is>
       </c>
       <c r="T13" s="0" t="n">
-        <v>479125</v>
+        <v>479118</v>
       </c>
       <c r="U13" s="0"/>
       <c r="V13" s="0" t="inlineStr">
         <is>
-          <t>2018-14370</t>
+          <t>2018-14377</t>
         </is>
       </c>
       <c r="W13" s="0" t="d">
@@ -2456,12 +2575,12 @@
       <c r="X13" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y13" s="0" t="inlineStr">
+      <c r="Y13" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
+      <c r="Z13" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2487,11 +2606,11 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>9215</v>
+        <v>9216</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>DFSU7409627</t>
+          <t>CSNU6109534</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
@@ -2550,12 +2669,12 @@
         </is>
       </c>
       <c r="T14" s="0" t="n">
-        <v>479118</v>
+        <v>479121</v>
       </c>
       <c r="U14" s="0"/>
       <c r="V14" s="0" t="inlineStr">
         <is>
-          <t>2018-14377</t>
+          <t>2018-14369</t>
         </is>
       </c>
       <c r="W14" s="0" t="d">
@@ -2564,12 +2683,12 @@
       <c r="X14" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y14" s="0" t="inlineStr">
+      <c r="Y14" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
+      <c r="Z14" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2595,11 +2714,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>9216</v>
+        <v>9217</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>CSNU6109534</t>
+          <t>CCLU7706583</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2658,12 +2777,12 @@
         </is>
       </c>
       <c r="T15" s="0" t="n">
-        <v>479121</v>
+        <v>479127</v>
       </c>
       <c r="U15" s="0"/>
       <c r="V15" s="0" t="inlineStr">
         <is>
-          <t>2018-14369</t>
+          <t>2018-14376</t>
         </is>
       </c>
       <c r="W15" s="0" t="d">
@@ -2672,12 +2791,12 @@
       <c r="X15" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y15" s="0" t="inlineStr">
+      <c r="Y15" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
+      <c r="Z15" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2703,11 +2822,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>9217</v>
+        <v>9218</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>CCLU7706583</t>
+          <t>CSNU6506568</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2766,12 +2885,12 @@
         </is>
       </c>
       <c r="T16" s="0" t="n">
-        <v>479127</v>
+        <v>479128</v>
       </c>
       <c r="U16" s="0"/>
       <c r="V16" s="0" t="inlineStr">
         <is>
-          <t>2018-14376</t>
+          <t>2018-14401</t>
         </is>
       </c>
       <c r="W16" s="0" t="d">
@@ -2780,12 +2899,12 @@
       <c r="X16" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y16" s="0" t="inlineStr">
+      <c r="Y16" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z16" s="0" t="inlineStr">
+      <c r="Z16" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2811,11 +2930,11 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>9218</v>
+        <v>9219</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>CSNU6506568</t>
+          <t>CCLU7610820</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
@@ -2874,12 +2993,12 @@
         </is>
       </c>
       <c r="T17" s="0" t="n">
-        <v>479128</v>
+        <v>479123</v>
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>2018-14401</t>
+          <t>2018-14400</t>
         </is>
       </c>
       <c r="W17" s="0" t="d">
@@ -2888,12 +3007,12 @@
       <c r="X17" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y17" s="0" t="inlineStr">
+      <c r="Y17" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
+      <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -2919,11 +3038,11 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>9219</v>
+        <v>9220</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>CCLU7610820</t>
+          <t>CCLU7491994</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
@@ -2982,12 +3101,12 @@
         </is>
       </c>
       <c r="T18" s="0" t="n">
-        <v>479123</v>
+        <v>479120</v>
       </c>
       <c r="U18" s="0"/>
       <c r="V18" s="0" t="inlineStr">
         <is>
-          <t>2018-14400</t>
+          <t>2018-14444</t>
         </is>
       </c>
       <c r="W18" s="0" t="d">
@@ -2996,12 +3115,12 @@
       <c r="X18" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y18" s="0" t="inlineStr">
+      <c r="Y18" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z18" s="0" t="inlineStr">
+      <c r="Z18" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3027,11 +3146,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>9220</v>
+        <v>9221</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>CCLU7491994</t>
+          <t>FCIU9978486</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -3090,12 +3209,12 @@
         </is>
       </c>
       <c r="T19" s="0" t="n">
-        <v>479120</v>
+        <v>479115</v>
       </c>
       <c r="U19" s="0"/>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>2018-14444</t>
+          <t>2018-14449</t>
         </is>
       </c>
       <c r="W19" s="0" t="d">
@@ -3104,12 +3223,12 @@
       <c r="X19" s="0" t="d">
         <v>2018-09-02T00:00:00</v>
       </c>
-      <c r="Y19" s="0" t="inlineStr">
+      <c r="Y19" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
+      <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3135,11 +3254,11 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>9221</v>
+        <v>9222</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>FCIU9978486</t>
+          <t>CSNU6264000</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
@@ -3198,26 +3317,26 @@
         </is>
       </c>
       <c r="T20" s="0" t="n">
-        <v>479115</v>
+        <v>479112</v>
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>2018-14449</t>
+          <t>2018-14520</t>
         </is>
       </c>
       <c r="W20" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="X20" s="0" t="d">
-        <v>2018-09-02T00:00:00</v>
-      </c>
-      <c r="Y20" s="0" t="inlineStr">
+        <v>2018-09-03T00:00:00</v>
+      </c>
+      <c r="Y20" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z20" s="0" t="inlineStr">
+      <c r="Z20" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3243,11 +3362,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>9222</v>
+        <v>9223</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>CSNU6264000</t>
+          <t>TCNU2156533</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -3306,12 +3425,12 @@
         </is>
       </c>
       <c r="T21" s="0" t="n">
-        <v>479112</v>
+        <v>479117</v>
       </c>
       <c r="U21" s="0"/>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>2018-14520</t>
+          <t>2018-14505</t>
         </is>
       </c>
       <c r="W21" s="0" t="d">
@@ -3320,12 +3439,12 @@
       <c r="X21" s="0" t="d">
         <v>2018-09-03T00:00:00</v>
       </c>
-      <c r="Y21" s="0" t="inlineStr">
+      <c r="Y21" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z21" s="0" t="inlineStr">
+      <c r="Z21" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3351,11 +3470,11 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>9223</v>
+        <v>9224</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>TCNU2156533</t>
+          <t>CSLU6328258</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
@@ -3414,12 +3533,12 @@
         </is>
       </c>
       <c r="T22" s="0" t="n">
-        <v>479117</v>
+        <v>479129</v>
       </c>
       <c r="U22" s="0"/>
       <c r="V22" s="0" t="inlineStr">
         <is>
-          <t>2018-14505</t>
+          <t>2018-14445</t>
         </is>
       </c>
       <c r="W22" s="0" t="d">
@@ -3428,12 +3547,12 @@
       <c r="X22" s="0" t="d">
         <v>2018-09-03T00:00:00</v>
       </c>
-      <c r="Y22" s="0" t="inlineStr">
+      <c r="Y22" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z22" s="0" t="inlineStr">
+      <c r="Z22" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3459,11 +3578,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>9224</v>
+        <v>9225</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>CSLU6328258</t>
+          <t>CCLU7173078</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -3522,12 +3641,12 @@
         </is>
       </c>
       <c r="T23" s="0" t="n">
-        <v>479129</v>
+        <v>479113</v>
       </c>
       <c r="U23" s="0"/>
       <c r="V23" s="0" t="inlineStr">
         <is>
-          <t>2018-14445</t>
+          <t>2018-14543</t>
         </is>
       </c>
       <c r="W23" s="0" t="d">
@@ -3536,12 +3655,12 @@
       <c r="X23" s="0" t="d">
         <v>2018-09-03T00:00:00</v>
       </c>
-      <c r="Y23" s="0" t="inlineStr">
+      <c r="Y23" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z23" s="0" t="inlineStr">
+      <c r="Z23" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3567,11 +3686,11 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>9225</v>
+        <v>9226</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>CCLU7173078</t>
+          <t>FCIU9662311</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
@@ -3630,26 +3749,26 @@
         </is>
       </c>
       <c r="T24" s="0" t="n">
-        <v>479113</v>
+        <v>479130</v>
       </c>
       <c r="U24" s="0"/>
       <c r="V24" s="0" t="inlineStr">
         <is>
-          <t>2018-14543</t>
+          <t>2018-14475</t>
         </is>
       </c>
       <c r="W24" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="X24" s="0" t="d">
-        <v>2018-09-03T00:00:00</v>
-      </c>
-      <c r="Y24" s="0" t="inlineStr">
+        <v>2018-09-04T00:00:00</v>
+      </c>
+      <c r="Y24" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z24" s="0" t="inlineStr">
+      <c r="Z24" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3675,11 +3794,11 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>9226</v>
+        <v>9227</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>FCIU9662311</t>
+          <t>CSNU6557689</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
@@ -3738,26 +3857,26 @@
         </is>
       </c>
       <c r="T25" s="0" t="n">
-        <v>479130</v>
+        <v>479114</v>
       </c>
       <c r="U25" s="0"/>
       <c r="V25" s="0" t="inlineStr">
         <is>
-          <t>2018-14475</t>
+          <t>2018-14348</t>
         </is>
       </c>
       <c r="W25" s="0" t="d">
         <v>2018-09-01T00:00:00</v>
       </c>
       <c r="X25" s="0" t="d">
-        <v>2018-09-04T00:00:00</v>
-      </c>
-      <c r="Y25" s="0" t="inlineStr">
+        <v>2018-09-06T00:00:00</v>
+      </c>
+      <c r="Y25" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z25" s="0" t="inlineStr">
+      <c r="Z25" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3783,11 +3902,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>9227</v>
+        <v>9338</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>CSNU6557689</t>
+          <t>FSCU8678924</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -3815,17 +3934,17 @@
       </c>
       <c r="H26" s="0" t="inlineStr">
         <is>
-          <t>OEL STRAITS</t>
+          <t>OEL DELTA</t>
         </is>
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
-          <t>2472/2018</t>
+          <t>2681/2018</t>
         </is>
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>DEMOTRANS</t>
+          <t>MEHMUD INDUSTRIES (PVT.) LTD.</t>
         </is>
       </c>
       <c r="K26" s="0" t="inlineStr">
@@ -3846,26 +3965,26 @@
         </is>
       </c>
       <c r="T26" s="0" t="n">
-        <v>479114</v>
+        <v>19304</v>
       </c>
       <c r="U26" s="0"/>
       <c r="V26" s="0" t="inlineStr">
         <is>
-          <t>2018-14348</t>
+          <t>2018-15079</t>
         </is>
       </c>
       <c r="W26" s="0" t="d">
-        <v>2018-09-01T00:00:00</v>
+        <v>2018-09-08T00:00:00</v>
       </c>
       <c r="X26" s="0" t="d">
-        <v>2018-09-06T00:00:00</v>
-      </c>
-      <c r="Y26" s="0" t="inlineStr">
+        <v>2018-09-08T00:00:00</v>
+      </c>
+      <c r="Y26" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z26" s="0" t="inlineStr">
+      <c r="Z26" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3875,11 +3994,11 @@
       </c>
       <c r="AB26" s="0" t="inlineStr">
         <is>
-          <t>COSU6166712590</t>
+          <t>COSU6103702930</t>
         </is>
       </c>
       <c r="AC26" s="0" t="n">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AD26" s="0"/>
       <c r="AE26" s="0" t="inlineStr">
@@ -3891,11 +4010,11 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>9338</v>
+        <v>9339</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>FSCU8678924</t>
+          <t>CSLU6082668</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
@@ -3954,12 +4073,12 @@
         </is>
       </c>
       <c r="T27" s="0" t="n">
-        <v>19304</v>
+        <v>19310</v>
       </c>
       <c r="U27" s="0"/>
       <c r="V27" s="0" t="inlineStr">
         <is>
-          <t>2018-15079</t>
+          <t>2018-15088</t>
         </is>
       </c>
       <c r="W27" s="0" t="d">
@@ -3968,12 +4087,12 @@
       <c r="X27" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
-      <c r="Y27" s="0" t="inlineStr">
+      <c r="Y27" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z27" s="0" t="inlineStr">
+      <c r="Z27" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -3999,11 +4118,11 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>9339</v>
+        <v>9340</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>CSLU6082668</t>
+          <t>CBHU8773101</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -4062,26 +4181,26 @@
         </is>
       </c>
       <c r="T28" s="0" t="n">
-        <v>19310</v>
+        <v>19302</v>
       </c>
       <c r="U28" s="0"/>
       <c r="V28" s="0" t="inlineStr">
         <is>
-          <t>2018-15088</t>
+          <t>2018-15223</t>
         </is>
       </c>
       <c r="W28" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
       <c r="X28" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="Y28" s="0" t="inlineStr">
+        <v>2018-09-11T00:00:00</v>
+      </c>
+      <c r="Y28" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z28" s="0" t="inlineStr">
+      <c r="Z28" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4107,11 +4226,11 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>9340</v>
+        <v>9341</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>CBHU8773101</t>
+          <t>TCNU6343213</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
@@ -4170,12 +4289,12 @@
         </is>
       </c>
       <c r="T29" s="0" t="n">
-        <v>19302</v>
+        <v>21696</v>
       </c>
       <c r="U29" s="0"/>
       <c r="V29" s="0" t="inlineStr">
         <is>
-          <t>2018-15223</t>
+          <t>2018-15225</t>
         </is>
       </c>
       <c r="W29" s="0" t="d">
@@ -4184,12 +4303,12 @@
       <c r="X29" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
-      <c r="Y29" s="0" t="inlineStr">
+      <c r="Y29" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z29" s="0" t="inlineStr">
+      <c r="Z29" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4215,11 +4334,11 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>9341</v>
+        <v>9342</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>TCNU6343213</t>
+          <t>TCNU2542048</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
@@ -4278,12 +4397,12 @@
         </is>
       </c>
       <c r="T30" s="0" t="n">
-        <v>21696</v>
+        <v>21691</v>
       </c>
       <c r="U30" s="0"/>
       <c r="V30" s="0" t="inlineStr">
         <is>
-          <t>2018-15225</t>
+          <t>2018-15234</t>
         </is>
       </c>
       <c r="W30" s="0" t="d">
@@ -4292,12 +4411,12 @@
       <c r="X30" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
-      <c r="Y30" s="0" t="inlineStr">
+      <c r="Y30" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z30" s="0" t="inlineStr">
+      <c r="Z30" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4323,11 +4442,11 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>9342</v>
+        <v>9343</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>TCNU2542048</t>
+          <t>CCLU7662470</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
@@ -4386,12 +4505,12 @@
         </is>
       </c>
       <c r="T31" s="0" t="n">
-        <v>21691</v>
+        <v>19303</v>
       </c>
       <c r="U31" s="0"/>
       <c r="V31" s="0" t="inlineStr">
         <is>
-          <t>2018-15234</t>
+          <t>2018-15238</t>
         </is>
       </c>
       <c r="W31" s="0" t="d">
@@ -4400,12 +4519,12 @@
       <c r="X31" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
-      <c r="Y31" s="0" t="inlineStr">
+      <c r="Y31" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z31" s="0" t="inlineStr">
+      <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4431,11 +4550,11 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>9343</v>
+        <v>9344</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>CCLU7662470</t>
+          <t>CSLU6028939</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
@@ -4494,12 +4613,12 @@
         </is>
       </c>
       <c r="T32" s="0" t="n">
-        <v>19303</v>
+        <v>19309</v>
       </c>
       <c r="U32" s="0"/>
       <c r="V32" s="0" t="inlineStr">
         <is>
-          <t>2018-15238</t>
+          <t>2018-15239</t>
         </is>
       </c>
       <c r="W32" s="0" t="d">
@@ -4508,12 +4627,12 @@
       <c r="X32" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
-      <c r="Y32" s="0" t="inlineStr">
+      <c r="Y32" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z32" s="0" t="inlineStr">
+      <c r="Z32" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4539,11 +4658,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>9344</v>
+        <v>9345</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>CSLU6028939</t>
+          <t>FCIU7156042</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -4602,12 +4721,12 @@
         </is>
       </c>
       <c r="T33" s="0" t="n">
-        <v>19309</v>
+        <v>19306</v>
       </c>
       <c r="U33" s="0"/>
       <c r="V33" s="0" t="inlineStr">
         <is>
-          <t>2018-15239</t>
+          <t>2018-15237</t>
         </is>
       </c>
       <c r="W33" s="0" t="d">
@@ -4616,12 +4735,12 @@
       <c r="X33" s="0" t="d">
         <v>2018-09-11T00:00:00</v>
       </c>
-      <c r="Y33" s="0" t="inlineStr">
+      <c r="Y33" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z33" s="0" t="inlineStr">
+      <c r="Z33" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4647,11 +4766,11 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>9345</v>
+        <v>9346</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>FCIU7156042</t>
+          <t>DFSU7558410</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
@@ -4710,26 +4829,26 @@
         </is>
       </c>
       <c r="T34" s="0" t="n">
-        <v>19306</v>
+        <v>19307</v>
       </c>
       <c r="U34" s="0"/>
       <c r="V34" s="0" t="inlineStr">
         <is>
-          <t>2018-15237</t>
+          <t>2018-15346</t>
         </is>
       </c>
       <c r="W34" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
       <c r="X34" s="0" t="d">
-        <v>2018-09-11T00:00:00</v>
-      </c>
-      <c r="Y34" s="0" t="inlineStr">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="Y34" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z34" s="0" t="inlineStr">
+      <c r="Z34" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4755,11 +4874,11 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>9346</v>
+        <v>9347</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>DFSU7558410</t>
+          <t>CCLU7480500</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
@@ -4818,26 +4937,26 @@
         </is>
       </c>
       <c r="T35" s="0" t="n">
-        <v>19307</v>
+        <v>19308</v>
       </c>
       <c r="U35" s="0"/>
       <c r="V35" s="0" t="inlineStr">
         <is>
-          <t>2018-15346</t>
+          <t>2018-15442</t>
         </is>
       </c>
       <c r="W35" s="0" t="d">
         <v>2018-09-08T00:00:00</v>
       </c>
       <c r="X35" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="Y35" s="0" t="inlineStr">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="Y35" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z35" s="0" t="inlineStr">
+      <c r="Z35" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4863,11 +4982,11 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>9347</v>
+        <v>9348</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>CCLU7480500</t>
+          <t>CBHU7068299</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
@@ -4926,12 +5045,12 @@
         </is>
       </c>
       <c r="T36" s="0" t="n">
-        <v>19308</v>
+        <v>19301</v>
       </c>
       <c r="U36" s="0"/>
       <c r="V36" s="0" t="inlineStr">
         <is>
-          <t>2018-15442</t>
+          <t>2018-15440</t>
         </is>
       </c>
       <c r="W36" s="0" t="d">
@@ -4940,12 +5059,12 @@
       <c r="X36" s="0" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="Y36" s="0" t="inlineStr">
+      <c r="Y36" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z36" s="0" t="inlineStr">
+      <c r="Z36" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -4971,11 +5090,11 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>9348</v>
+        <v>9349</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>CBHU7068299</t>
+          <t>BMOU4612243</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -5034,12 +5153,12 @@
         </is>
       </c>
       <c r="T37" s="0" t="n">
-        <v>19301</v>
+        <v>19305</v>
       </c>
       <c r="U37" s="0"/>
       <c r="V37" s="0" t="inlineStr">
         <is>
-          <t>2018-15440</t>
+          <t>2018-15441</t>
         </is>
       </c>
       <c r="W37" s="0" t="d">
@@ -5048,12 +5167,12 @@
       <c r="X37" s="0" t="d">
         <v>2018-09-14T00:00:00</v>
       </c>
-      <c r="Y37" s="0" t="inlineStr">
+      <c r="Y37" s="4" t="inlineStr">
         <is>
           <t>CPA</t>
         </is>
       </c>
-      <c r="Z37" s="0" t="inlineStr">
+      <c r="Z37" s="4" t="inlineStr">
         <is>
           <t>SAPL</t>
         </is>
@@ -5076,114 +5195,6 @@
         </is>
       </c>
       <c r="AF37" s="0"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="n">
-        <v>9349</v>
-      </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>BMOU4612243</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D38" s="0" t="inlineStr">
-        <is>
-          <t>HC</t>
-        </is>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="inlineStr">
-        <is>
-          <t>COA</t>
-        </is>
-      </c>
-      <c r="H38" s="0" t="inlineStr">
-        <is>
-          <t>OEL DELTA</t>
-        </is>
-      </c>
-      <c r="I38" s="0" t="inlineStr">
-        <is>
-          <t>2681/2018</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>MEHMUD INDUSTRIES (PVT.) LTD.</t>
-        </is>
-      </c>
-      <c r="K38" s="0" t="inlineStr">
-        <is>
-          <t>SOUND</t>
-        </is>
-      </c>
-      <c r="L38" s="0"/>
-      <c r="M38" s="0"/>
-      <c r="N38" s="0"/>
-      <c r="O38" s="0"/>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
-      <c r="R38" s="0"/>
-      <c r="S38" s="0" t="inlineStr">
-        <is>
-          <t>RAW COTTON</t>
-        </is>
-      </c>
-      <c r="T38" s="0" t="n">
-        <v>19305</v>
-      </c>
-      <c r="U38" s="0"/>
-      <c r="V38" s="0" t="inlineStr">
-        <is>
-          <t>2018-15441</t>
-        </is>
-      </c>
-      <c r="W38" s="0" t="d">
-        <v>2018-09-08T00:00:00</v>
-      </c>
-      <c r="X38" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="Y38" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="Z38" s="0" t="inlineStr">
-        <is>
-          <t>SAPL</t>
-        </is>
-      </c>
-      <c r="AA38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="0" t="inlineStr">
-        <is>
-          <t>COSU6103702930</t>
-        </is>
-      </c>
-      <c r="AC38" s="0" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD38" s="0"/>
-      <c r="AE38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AF38" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -5206,15 +5217,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -5231,115 +5242,108 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Laden Stock Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>COA</t>
         </is>
       </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>40-HC</t>
         </is>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
         <v>31</v>
       </c>
     </row>
@@ -5364,13 +5368,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -5378,20 +5382,20 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="false" customWidth="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -5401,167 +5405,165 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>COSCO AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>COSCO AGENT</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Import Issue Balance Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Height</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Bl Number</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Be Number</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Importer</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Cnf</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>From Location</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Depot Location</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal Number</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Amen Seal No</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Issue Date</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
